--- a/target/classes/Foodmenu.xlsx
+++ b/target/classes/Foodmenu.xlsx
@@ -36,13 +36,13 @@
     <t>09-09-1876</t>
   </si>
   <si>
-    <t>Chicken Biriyani</t>
-  </si>
-  <si>
-    <t>Upma and Vermicelli</t>
-  </si>
-  <si>
-    <t>17-03-2023</t>
+    <t>Rice and Egg</t>
+  </si>
+  <si>
+    <t>17-04-2023</t>
+  </si>
+  <si>
+    <t>Meals and Egg Two</t>
   </si>
 </sst>
 </file>
@@ -387,13 +387,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -411,10 +411,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>

--- a/target/classes/Foodmenu.xlsx
+++ b/target/classes/Foodmenu.xlsx
@@ -36,13 +36,13 @@
     <t>09-09-1876</t>
   </si>
   <si>
-    <t>Rice and Egg</t>
-  </si>
-  <si>
-    <t>17-04-2023</t>
-  </si>
-  <si>
-    <t>Meals and Egg Two</t>
+    <t>18-04-2023</t>
+  </si>
+  <si>
+    <t>Meals and Sweet</t>
+  </si>
+  <si>
+    <t>Rice and Egg two</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,13 +411,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">

--- a/target/classes/Foodmenu.xlsx
+++ b/target/classes/Foodmenu.xlsx
@@ -36,13 +36,13 @@
     <t>09-09-1876</t>
   </si>
   <si>
-    <t>18-04-2023</t>
-  </si>
-  <si>
-    <t>Meals and Sweet</t>
-  </si>
-  <si>
-    <t>Rice and Egg two</t>
+    <t>Old Rice and Onion</t>
+  </si>
+  <si>
+    <t>Mini Breakfast and Sweets</t>
+  </si>
+  <si>
+    <t>21-04-2023</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,13 +411,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
